--- a/mediafiles/cmms-equipment.xlsx
+++ b/mediafiles/cmms-equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="pant_area" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,6 @@
     <sheet name="sparepart_name" sheetId="5" r:id="rId5"/>
     <sheet name="tool_name" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="sort">#REF!</definedName>
     <definedName name="UNI_FILT_OFFSPEC" hidden="1">2</definedName>
@@ -53,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="505">
   <si>
     <t>name</t>
   </si>
@@ -1544,6 +1541,30 @@
   </si>
   <si>
     <t>Rotating - Equipment</t>
+  </si>
+  <si>
+    <t>foreign_department</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Admin Building</t>
+  </si>
+  <si>
+    <t>Gate 1</t>
+  </si>
+  <si>
+    <t>Gate 2</t>
+  </si>
+  <si>
+    <t>QCA &amp; Safety</t>
+  </si>
+  <si>
+    <t>HRDGA</t>
+  </si>
+  <si>
+    <t>Marketing &amp; Off Site</t>
   </si>
 </sst>
 </file>
@@ -1605,41 +1626,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DbSetup"/>
-      <sheetName val="Department"/>
-      <sheetName val="Section"/>
-      <sheetName val="User"/>
-      <sheetName val="Profile"/>
-      <sheetName val="ProfileAction"/>
-      <sheetName val="mode"/>
-      <sheetName val="action"/>
-      <sheetName val="Category"/>
-      <sheetName val="CategoryAction"/>
-      <sheetName val="User_group"/>
-      <sheetName val="Req.Category"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1932,152 +1918,226 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>499</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>499</v>
+      </c>
+      <c r="C17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>500</v>
+      </c>
+      <c r="B18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2948,7 @@
   </sheetPr>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
